--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="53" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -69,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>
@@ -329,9 +334,6 @@
     <t>TestAprilReports</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll RTI Recognition Test Report 201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
-  </si>
-  <si>
     <t>ProcessFinalPayrollForMay</t>
   </si>
   <si>
@@ -660,12 +662,19 @@
   </si>
   <si>
     <t>ResetEmployeeData12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Payroll RTI Recognition Test result.xlsx
+</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -786,6 +795,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -833,7 +845,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -866,9 +878,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,6 +930,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1079,19 +1125,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1119,9 +1165,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>80</v>
@@ -1133,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1147,7 +1193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1161,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1175,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1189,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1203,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1217,9 +1263,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>80</v>
@@ -1231,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1245,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1259,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1273,9 +1319,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>80</v>
@@ -1287,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1301,9 +1347,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>80</v>
@@ -1315,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1329,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1343,9 +1389,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>80</v>
@@ -1357,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1371,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1385,7 +1431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1399,9 +1445,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>80</v>
@@ -1413,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1427,7 +1473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1441,9 +1487,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>80</v>
@@ -1455,9 +1501,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>80</v>
@@ -1469,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1483,9 +1529,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>80</v>
@@ -1497,7 +1543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1511,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1525,9 +1571,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>80</v>
@@ -1539,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1553,9 +1599,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>80</v>
@@ -1567,7 +1613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1581,7 +1627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1595,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1609,9 +1655,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>80</v>
@@ -1623,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1637,7 +1683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1651,9 +1697,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -1665,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1679,9 +1725,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>80</v>
@@ -1693,7 +1739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1707,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1721,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1735,9 +1781,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>80</v>
@@ -1749,7 +1795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1763,7 +1809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1777,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1791,9 +1837,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>80</v>
@@ -1805,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1819,9 +1865,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>80</v>
@@ -1833,7 +1879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -1847,7 +1893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1861,9 +1907,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>80</v>
@@ -1875,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1898,28 +1944,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1954,13 +2000,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1972,15 +2018,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -1989,13 +2035,13 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>64</v>
@@ -2007,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>65</v>
@@ -2036,17 +2082,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2075,18 +2121,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -2107,28 +2153,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2172,15 +2218,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2189,16 +2235,16 @@
         <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -2223,21 +2269,21 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2281,15 +2327,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2298,13 +2344,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>65</v>
@@ -2331,29 +2377,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2388,13 +2434,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2406,15 +2452,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -2423,13 +2469,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>66</v>
@@ -2444,10 +2490,10 @@
         <v>68</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>4</v>
@@ -2466,61 +2512,61 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
@@ -2532,42 +2578,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>160</v>
-      </c>
       <c r="D2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>171</v>
-      </c>
       <c r="I2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>4</v>
@@ -2587,17 +2633,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2626,18 +2672,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -2658,27 +2704,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2722,15 +2768,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2739,13 +2785,13 @@
         <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>67</v>
@@ -2769,24 +2815,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2830,15 +2876,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2847,16 +2893,16 @@
         <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -2880,29 +2926,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2937,13 +2983,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2955,15 +3001,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -2972,16 +3018,16 @@
         <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>24</v>
@@ -2993,7 +3039,7 @@
         <v>69</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>70</v>
@@ -3015,26 +3061,26 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3046,12 +3092,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
@@ -3065,7 +3111,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3082,18 +3128,18 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3122,18 +3168,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -3154,27 +3200,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3218,15 +3264,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3235,16 +3281,16 @@
         <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3265,22 +3311,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3324,15 +3370,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3341,13 +3387,13 @@
         <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>68</v>
@@ -3374,29 +3420,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3431,13 +3477,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3449,15 +3495,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -3466,16 +3512,16 @@
         <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>24</v>
@@ -3484,13 +3530,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>4</v>
@@ -3509,26 +3555,26 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3540,18 +3586,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>160</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>4</v>
@@ -3571,31 +3617,31 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3607,21 +3653,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>4</v>
@@ -3636,21 +3682,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3679,18 +3725,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -3711,29 +3757,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3777,15 +3823,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3794,16 +3840,16 @@
         <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3824,21 +3870,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3882,15 +3928,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3899,16 +3945,16 @@
         <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3932,26 +3978,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3986,13 +4032,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4004,15 +4050,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -4021,16 +4067,16 @@
         <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>24</v>
@@ -4039,13 +4085,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>4</v>
@@ -4064,15 +4110,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4101,18 +4147,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -4138,17 +4184,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4177,18 +4223,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -4213,26 +4259,26 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4244,18 +4290,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>160</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>4</v>
@@ -4270,29 +4316,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4336,15 +4382,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4353,13 +4399,13 @@
         <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>69</v>
@@ -4383,21 +4429,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4441,15 +4487,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4458,16 +4504,16 @@
         <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -4491,27 +4537,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4546,13 +4592,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4564,15 +4610,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -4581,13 +4627,13 @@
         <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>70</v>
@@ -4599,13 +4645,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>4</v>
@@ -4624,17 +4670,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="51.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="51.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4663,18 +4709,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -4695,27 +4741,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4759,15 +4805,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4776,13 +4822,13 @@
         <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>70</v>
@@ -4807,20 +4853,20 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4864,15 +4910,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4881,16 +4927,16 @@
         <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -4914,27 +4960,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4969,13 +5015,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4987,15 +5033,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -5004,16 +5050,16 @@
         <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>24</v>
@@ -5022,13 +5068,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>4</v>
@@ -5047,18 +5093,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5087,18 +5133,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -5119,27 +5165,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5183,15 +5229,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5200,13 +5246,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>61</v>
@@ -5238,26 +5284,26 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5269,18 +5315,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>4</v>
@@ -5296,26 +5342,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5359,15 +5405,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5376,16 +5422,16 @@
         <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -5407,21 +5453,21 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5465,15 +5511,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5482,16 +5528,16 @@
         <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -5516,26 +5562,26 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5570,13 +5616,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5588,15 +5634,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -5605,16 +5651,16 @@
         <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>24</v>
@@ -5623,13 +5669,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>4</v>
@@ -5648,17 +5694,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5687,18 +5733,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -5720,26 +5766,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5783,33 +5829,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -5831,20 +5877,20 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5888,33 +5934,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -5938,27 +5984,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5993,13 +6039,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6011,33 +6057,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>24</v>
@@ -6046,13 +6092,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>4</v>
@@ -6071,17 +6117,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6110,18 +6156,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -6142,27 +6188,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6206,33 +6252,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -6253,27 +6299,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6317,15 +6363,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6334,13 +6380,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>62</v>
@@ -6367,23 +6413,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6427,33 +6473,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -6477,26 +6523,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6531,13 +6577,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6549,33 +6595,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>24</v>
@@ -6584,13 +6630,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>4</v>
@@ -6609,18 +6655,18 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -6632,12 +6678,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>4</v>
@@ -6655,22 +6701,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6699,18 +6745,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -6732,26 +6778,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6795,33 +6841,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -6845,27 +6891,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6909,33 +6955,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -6960,26 +7006,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7014,13 +7060,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -7032,33 +7078,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>24</v>
@@ -7067,13 +7113,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>4</v>
@@ -7093,28 +7139,28 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="35" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.21875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -7149,13 +7195,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="O1" s="14" t="s">
         <v>2</v>
@@ -7167,15 +7213,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -7184,13 +7230,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>84</v>
@@ -7202,7 +7248,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>61</v>
@@ -7231,16 +7277,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7269,18 +7315,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -7301,27 +7347,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7365,15 +7411,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -7382,13 +7428,13 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>63</v>
@@ -7415,27 +7461,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7479,15 +7525,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -7496,16 +7542,16 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="53" activeTab="55"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1134,7 @@
     <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
@@ -4107,7 +4107,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7006,7 +7006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
@@ -7273,8 +7273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7347,8 +7347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -1,80 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="4" activeTab="6"/>
+    <workbookView activeTab="6" firstSheet="4" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId11"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId12"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId13"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId14"/>
-    <sheet name="CreateLeaveRequest" sheetId="63" r:id="rId15"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
-    <sheet name="UpdateLeaveRecord" sheetId="64" r:id="rId24"/>
-    <sheet name="CreateShPPLeaveRequest" sheetId="65" r:id="rId25"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId26"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId27"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId28"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId29"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId30"/>
-    <sheet name="UpdateLeaveRecord7" sheetId="66" r:id="rId31"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId32"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId33"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId34"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId35"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId36"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId37"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId39"/>
-    <sheet name="UpdateLeaveRecord9" sheetId="67" r:id="rId40"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId41"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId42"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId43"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId44"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId45"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId46"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId47"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId48"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId49"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId50"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId51"/>
-    <sheet name="ResetEmployeeData12" sheetId="62" r:id="rId52"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId53"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId54"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId55"/>
-    <sheet name="TestMarchReports" sheetId="47" r:id="rId56"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId14" sheetId="20"/>
+    <sheet name="CreateLeaveRequest" r:id="rId15" sheetId="63"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
+    <sheet name="UpdateLeaveRecord" r:id="rId24" sheetId="64"/>
+    <sheet name="CreateShPPLeaveRequest" r:id="rId25" sheetId="65"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId26" sheetId="27"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId27" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId28" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId29" sheetId="29"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId30" sheetId="30"/>
+    <sheet name="UpdateLeaveRecord7" r:id="rId31" sheetId="66"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId32" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId33" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId34" sheetId="32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId35" sheetId="33"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId36" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId37" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId38" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId39" sheetId="36"/>
+    <sheet name="UpdateLeaveRecord9" r:id="rId40" sheetId="67"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId41" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId42" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId43" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId44" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId45" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId46" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId47" sheetId="41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId48" sheetId="42"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId49" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId50" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId51" sheetId="44"/>
+    <sheet name="ResetEmployeeData12" r:id="rId52" sheetId="62"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId53" sheetId="45"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId54" sheetId="46"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId55" sheetId="60"/>
+    <sheet name="TestMarchReports" r:id="rId56" sheetId="47"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>
@@ -675,6 +675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,69 +729,69 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -807,10 +808,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -845,7 +846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -897,7 +898,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1002,7 +1003,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1011,13 +1012,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1027,7 +1028,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1036,7 +1037,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1045,7 +1046,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1055,12 +1056,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1091,7 +1092,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1110,7 +1111,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1122,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1131,10 +1132,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,12 +1937,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1950,22 +1951,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
@@ -2067,15 +2068,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2084,12 +2085,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2121,7 +2122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -2145,12 +2146,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2159,19 +2160,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2218,7 +2219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -2258,14 +2259,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2274,13 +2275,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2327,7 +2328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -2367,14 +2368,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2383,23 +2384,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>82</v>
       </c>
@@ -2501,14 +2502,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2517,18 +2518,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2578,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -2620,13 +2621,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2635,12 +2636,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2672,7 +2673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -2696,12 +2697,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2710,18 +2711,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2768,7 +2769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -2807,12 +2808,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2821,15 +2822,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2876,7 +2877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -2916,14 +2917,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2932,23 +2933,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
@@ -3049,12 +3050,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3063,10 +3064,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3092,7 +3093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -3115,13 +3116,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3130,13 +3131,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3168,7 +3169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -3192,12 +3193,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3206,18 +3207,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3264,7 +3265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -3303,12 +3304,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3317,13 +3318,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3370,7 +3371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -3410,14 +3411,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3426,23 +3427,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
@@ -3543,12 +3544,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3557,10 +3558,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3586,7 +3587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -3604,13 +3605,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3619,12 +3620,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3653,7 +3654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -3674,12 +3675,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3688,12 +3689,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3725,7 +3726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -3749,12 +3750,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3763,20 +3764,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3823,7 +3824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -3862,12 +3863,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3876,12 +3877,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3928,7 +3929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -3968,14 +3969,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -3984,20 +3985,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
@@ -4098,12 +4099,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4112,10 +4113,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4147,7 +4148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -4171,13 +4172,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4186,12 +4187,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4223,7 +4224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -4247,12 +4248,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4261,10 +4262,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4290,7 +4291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="2" s="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -4308,12 +4309,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4322,20 +4323,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4382,7 +4383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -4421,12 +4422,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4435,12 +4436,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4487,7 +4488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -4527,14 +4528,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -4543,21 +4544,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
@@ -4658,12 +4659,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4672,12 +4673,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4709,7 +4710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -4733,12 +4734,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -4747,18 +4748,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4805,7 +4806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -4844,12 +4845,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -4858,12 +4859,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4910,7 +4911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -4950,14 +4951,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -4966,21 +4967,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
@@ -5081,12 +5082,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5095,13 +5096,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5133,7 +5134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -5157,12 +5158,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5171,18 +5172,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5229,7 +5230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -5269,15 +5270,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5286,10 +5287,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5315,7 +5316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -5333,12 +5334,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -5347,18 +5348,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5405,7 +5406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -5444,12 +5445,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5458,13 +5459,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5511,7 +5512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -5551,14 +5552,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -5567,21 +5568,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
@@ -5682,12 +5683,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5696,12 +5697,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5733,7 +5734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -5757,12 +5758,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5771,18 +5772,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5829,7 +5830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -5868,12 +5869,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -5882,12 +5883,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5934,7 +5935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -5974,14 +5975,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5990,21 +5991,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
@@ -6105,12 +6106,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -6119,12 +6120,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6156,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -6180,12 +6181,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6194,18 +6195,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6252,7 +6253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -6291,12 +6292,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -6305,18 +6306,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6363,7 +6364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -6403,14 +6404,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -6419,14 +6420,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6473,7 +6474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -6513,14 +6514,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -6529,20 +6530,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6595,7 +6596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
@@ -6643,12 +6644,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6657,8 +6658,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6678,7 +6679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -6692,13 +6693,13 @@
       <c r="E2" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6707,13 +6708,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6745,7 +6746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -6769,12 +6770,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -6783,18 +6784,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6841,7 +6842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -6881,14 +6882,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -6897,18 +6898,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6955,7 +6956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -6995,15 +6996,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId2" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -7012,20 +7013,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>82</v>
       </c>
@@ -7127,15 +7128,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7144,23 +7145,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>82</v>
       </c>
@@ -7262,15 +7263,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -7279,11 +7280,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7315,7 +7316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -7339,12 +7340,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -7353,18 +7354,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7411,7 +7412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -7451,14 +7452,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -7467,18 +7468,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7525,7 +7526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>82</v>
       </c>
@@ -7565,8 +7566,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -1,80 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="4" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId14" sheetId="20"/>
-    <sheet name="CreateLeaveRequest" r:id="rId15" sheetId="63"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
-    <sheet name="UpdateLeaveRecord" r:id="rId24" sheetId="64"/>
-    <sheet name="CreateShPPLeaveRequest" r:id="rId25" sheetId="65"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId26" sheetId="27"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId27" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId28" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId29" sheetId="29"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId30" sheetId="30"/>
-    <sheet name="UpdateLeaveRecord7" r:id="rId31" sheetId="66"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId32" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId33" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId34" sheetId="32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId35" sheetId="33"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId36" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId37" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId38" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId39" sheetId="36"/>
-    <sheet name="UpdateLeaveRecord9" r:id="rId40" sheetId="67"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId41" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId42" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId43" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId44" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId45" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId46" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId47" sheetId="41"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId48" sheetId="42"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId49" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId50" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId51" sheetId="44"/>
-    <sheet name="ResetEmployeeData12" r:id="rId52" sheetId="62"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId53" sheetId="45"/>
-    <sheet name="ProcessPayrollForMarch" r:id="rId54" sheetId="46"/>
-    <sheet name="ProcessFinalPayrollForMarch" r:id="rId55" sheetId="60"/>
-    <sheet name="TestMarchReports" r:id="rId56" sheetId="47"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId11"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId12"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId13"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId14"/>
+    <sheet name="CreateLeaveRequest" sheetId="63" r:id="rId15"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
+    <sheet name="UpdateLeaveRecord" sheetId="64" r:id="rId24"/>
+    <sheet name="CreateShPPLeaveRequest" sheetId="65" r:id="rId25"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId26"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId27"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId28"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId29"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId30"/>
+    <sheet name="UpdateLeaveRecord7" sheetId="66" r:id="rId31"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId32"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId33"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId34"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId35"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId36"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId37"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId39"/>
+    <sheet name="UpdateLeaveRecord9" sheetId="67" r:id="rId40"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId41"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId42"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId43"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId44"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId45"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId46"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId47"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId48"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId49"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId50"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId51"/>
+    <sheet name="ResetEmployeeData12" sheetId="62" r:id="rId52"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId53"/>
+    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId54"/>
+    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId55"/>
+    <sheet name="TestMarchReports" sheetId="47" r:id="rId56"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>
@@ -322,9 +317,6 @@
     <t>UpdteTaxCodeAndAnualSalaryM1</t>
   </si>
   <si>
-    <t>DONT TOUCH AUTO EMPLR HMRC RECNTION</t>
-  </si>
-  <si>
     <t>ProcessFinalPayrollForApril</t>
   </si>
   <si>
@@ -641,9 +633,6 @@
   </si>
   <si>
     <t>UpdateLeaveRecord7</t>
-  </si>
-  <si>
-    <t>Monthly_RTIPayroll</t>
   </si>
   <si>
     <t>UpdateLeaveRecord9</t>
@@ -669,13 +658,18 @@
   </si>
   <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO HMRCS2 EMPLOYER</t>
+  </si>
+  <si>
+    <t>HMRCS2_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,69 +723,66 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -808,10 +799,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -846,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,26 +870,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -931,23 +905,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1003,7 +960,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1012,13 +969,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1028,7 +985,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1037,7 +994,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1046,7 +1003,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1056,12 +1013,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1092,7 +1049,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1111,7 +1068,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1123,22 +1080,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D12"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1166,9 +1123,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>80</v>
@@ -1180,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1194,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1208,9 +1165,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>80</v>
@@ -1222,9 +1179,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>80</v>
@@ -1236,7 +1193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1250,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1264,9 +1221,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>80</v>
@@ -1278,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1292,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1306,7 +1263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1320,9 +1277,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>80</v>
@@ -1334,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1348,9 +1305,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>80</v>
@@ -1362,7 +1319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1376,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1390,9 +1347,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>80</v>
@@ -1404,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1418,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1432,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1446,9 +1403,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>80</v>
@@ -1460,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1474,7 +1431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1488,9 +1445,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>80</v>
@@ -1502,9 +1459,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>80</v>
@@ -1516,7 +1473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1530,9 +1487,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>80</v>
@@ -1544,7 +1501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1558,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1572,9 +1529,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>80</v>
@@ -1586,7 +1543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1600,9 +1557,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>80</v>
@@ -1614,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1628,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1642,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1656,9 +1613,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>80</v>
@@ -1670,7 +1627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1684,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1698,9 +1655,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -1712,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1726,9 +1683,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>80</v>
@@ -1740,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1754,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1768,7 +1725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1782,9 +1739,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>80</v>
@@ -1796,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1810,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1824,7 +1781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1838,9 +1795,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>80</v>
@@ -1852,7 +1809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1866,9 +1823,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>80</v>
@@ -1880,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -1894,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1908,9 +1865,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>80</v>
@@ -1922,7 +1879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1937,36 +1894,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2000,14 +1957,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2019,81 +1976,81 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2122,18 +2079,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -2146,36 +2103,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2219,15 +2176,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2236,16 +2193,16 @@
         <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -2259,32 +2216,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2328,15 +2285,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2345,13 +2302,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>65</v>
@@ -2368,39 +2325,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2434,14 +2391,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2453,121 +2410,121 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
@@ -2579,72 +2536,72 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:15" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="L2" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2673,18 +2630,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -2697,35 +2654,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2769,15 +2726,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2786,13 +2743,13 @@
         <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>67</v>
@@ -2808,32 +2765,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2877,15 +2837,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2894,16 +2854,16 @@
         <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -2917,39 +2877,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2983,14 +2943,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3002,86 +2962,89 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3093,54 +3056,54 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="J2" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="J2" t="s">
-        <v>149</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3169,18 +3132,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -3193,35 +3156,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3265,15 +3228,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3282,16 +3245,16 @@
         <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3304,30 +3267,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3371,15 +3337,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3388,13 +3354,13 @@
         <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>68</v>
@@ -3411,39 +3377,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3477,14 +3443,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3496,86 +3462,89 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3587,62 +3556,62 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3654,50 +3623,50 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3726,18 +3695,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -3750,37 +3719,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3824,15 +3793,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3841,16 +3810,16 @@
         <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3863,29 +3832,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3929,15 +3901,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3946,16 +3918,16 @@
         <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3969,36 +3941,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4032,14 +4004,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4051,75 +4023,78 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4148,18 +4123,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -4172,30 +4147,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="45.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4224,18 +4199,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -4248,38 +4223,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4291,55 +4266,55 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="2" s="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4383,15 +4358,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4400,13 +4375,13 @@
         <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>69</v>
@@ -4422,29 +4397,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4488,15 +4466,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4505,16 +4483,16 @@
         <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -4528,37 +4506,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4592,14 +4570,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4611,77 +4589,80 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="2" width="51.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4710,18 +4691,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -4734,35 +4715,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4806,15 +4787,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4823,13 +4804,13 @@
         <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>70</v>
@@ -4845,29 +4826,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4911,15 +4895,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4928,16 +4912,16 @@
         <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -4951,37 +4935,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5015,14 +4999,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5034,78 +5018,81 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5134,18 +5121,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -5158,35 +5145,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5230,15 +5217,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5247,13 +5234,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>61</v>
@@ -5270,41 +5257,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5316,53 +5303,53 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="18" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5406,15 +5393,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5423,16 +5410,16 @@
         <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -5445,30 +5432,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5512,15 +5502,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5529,16 +5519,16 @@
         <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -5552,37 +5542,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5616,14 +5606,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5635,77 +5625,80 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5734,18 +5727,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -5758,35 +5751,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5830,33 +5823,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -5869,29 +5862,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5935,33 +5931,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -5975,37 +5971,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6039,14 +6035,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6058,77 +6054,80 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6157,18 +6156,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -6181,35 +6180,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6253,33 +6252,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -6292,35 +6291,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6364,15 +6366,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6381,13 +6383,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>62</v>
@@ -6404,33 +6406,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6474,33 +6476,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -6514,36 +6516,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6577,14 +6579,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6596,78 +6598,81 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -6679,45 +6684,45 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6746,18 +6751,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -6770,35 +6775,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6842,33 +6847,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>90</v>
+      <c r="E2" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -6882,37 +6887,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6956,33 +6962,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>90</v>
+      <c r="E2" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -6996,37 +7002,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId2" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7060,14 +7066,14 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -7079,215 +7085,216 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="35" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="47.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7316,18 +7323,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -7340,35 +7347,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7412,15 +7419,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -7429,13 +7436,13 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>63</v>
@@ -7452,37 +7459,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7526,15 +7533,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -7543,16 +7550,16 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -7566,8 +7573,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -4,72 +4,72 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="5" activeTab="7"/>
+    <workbookView activeTab="7" firstSheet="5" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId11"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId12"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId13"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId14"/>
-    <sheet name="CreateLeaveRequest" sheetId="63" r:id="rId15"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
-    <sheet name="UpdateLeaveRecord" sheetId="64" r:id="rId24"/>
-    <sheet name="CreateShPPLeaveRequest" sheetId="65" r:id="rId25"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId26"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId27"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId28"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId29"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId30"/>
-    <sheet name="UpdateLeaveRecord7" sheetId="66" r:id="rId31"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId32"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId33"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId34"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId35"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId36"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId37"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId39"/>
-    <sheet name="UpdateLeaveRecord9" sheetId="67" r:id="rId40"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId41"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId42"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId43"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId44"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId45"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId46"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId47"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId48"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId49"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId50"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId51"/>
-    <sheet name="ResetEmployeeData12" sheetId="62" r:id="rId52"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId53"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId54"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId55"/>
-    <sheet name="TestMarchReports" sheetId="47" r:id="rId56"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId14" sheetId="20"/>
+    <sheet name="CreateLeaveRequest" r:id="rId15" sheetId="63"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
+    <sheet name="UpdateLeaveRecord" r:id="rId24" sheetId="64"/>
+    <sheet name="CreateShPPLeaveRequest" r:id="rId25" sheetId="65"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId26" sheetId="27"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId27" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId28" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId29" sheetId="29"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId30" sheetId="30"/>
+    <sheet name="UpdateLeaveRecord7" r:id="rId31" sheetId="66"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId32" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId33" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId34" sheetId="32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId35" sheetId="33"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId36" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId37" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId38" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId39" sheetId="36"/>
+    <sheet name="UpdateLeaveRecord9" r:id="rId40" sheetId="67"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId41" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId42" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId43" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId44" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId45" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId46" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId47" sheetId="41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId48" sheetId="42"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId49" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId50" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId51" sheetId="44"/>
+    <sheet name="ResetEmployeeData12" r:id="rId52" sheetId="62"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId53" sheetId="45"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId54" sheetId="46"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId55" sheetId="60"/>
+    <sheet name="TestMarchReports" r:id="rId56" sheetId="47"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>
@@ -670,6 +670,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,66 +724,66 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -799,10 +800,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -960,7 +961,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -969,13 +970,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -985,7 +986,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -994,7 +995,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1003,7 +1004,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1013,12 +1014,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1049,7 +1050,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1068,7 +1069,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1080,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -1089,13 +1090,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1894,12 +1895,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1908,22 +1909,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -2025,15 +2026,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2042,15 +2043,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -2103,12 +2104,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2117,22 +2118,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -2216,14 +2217,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2232,16 +2233,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -2325,14 +2326,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2341,23 +2342,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -2459,14 +2460,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2475,21 +2476,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -2578,13 +2579,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2593,15 +2594,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -2654,12 +2655,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2668,21 +2669,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -2766,14 +2767,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2782,18 +2783,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -2877,14 +2878,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2893,23 +2894,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -3011,14 +3012,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3027,13 +3028,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -3079,13 +3080,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3094,16 +3095,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -3156,12 +3157,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3170,21 +3171,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -3268,14 +3269,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3284,16 +3285,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -3377,14 +3378,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3393,23 +3394,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -3511,14 +3512,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3527,13 +3528,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -3574,13 +3575,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3589,15 +3590,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -3644,12 +3645,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3658,15 +3659,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -3719,12 +3720,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,23 +3734,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="65.400000000000006" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -3833,14 +3834,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,15 +3850,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -3941,14 +3942,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3957,20 +3958,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -4072,14 +4073,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4088,13 +4089,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -4147,13 +4148,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4162,15 +4163,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -4223,12 +4224,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4237,13 +4238,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -4284,12 +4285,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4298,23 +4299,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.33203125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4358,7 +4359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -4398,14 +4399,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4414,15 +4415,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -4506,14 +4507,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4522,21 +4523,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -4638,14 +4639,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4654,15 +4655,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="51.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="51.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -4715,12 +4716,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4729,21 +4730,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -4827,14 +4828,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4843,12 +4844,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4895,7 +4896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -4935,14 +4936,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4951,21 +4952,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -5067,14 +5068,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5083,16 +5084,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -5145,12 +5146,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5159,18 +5160,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5217,7 +5218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -5257,15 +5258,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5274,13 +5275,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -5321,12 +5322,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5335,21 +5336,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -5433,14 +5434,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5449,16 +5450,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -5542,14 +5543,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5558,21 +5559,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -5674,14 +5675,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5690,15 +5691,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -5751,12 +5752,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5765,21 +5766,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -5863,14 +5864,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5879,15 +5880,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -5971,14 +5972,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5987,21 +5988,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -6103,14 +6104,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6119,15 +6120,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -6180,12 +6181,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6194,21 +6195,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -6292,14 +6293,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6308,21 +6309,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -6406,14 +6407,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6422,17 +6423,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -6516,14 +6517,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6532,20 +6533,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -6647,14 +6648,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6663,11 +6664,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6684,7 +6685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -6698,13 +6699,13 @@
       <c r="E2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6713,16 +6714,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6751,7 +6752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -6775,12 +6776,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6789,21 +6790,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -6887,15 +6888,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6904,21 +6905,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -7002,15 +7003,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7019,20 +7020,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7085,7 +7086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -7134,16 +7135,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7152,23 +7153,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -7270,15 +7271,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7287,14 +7288,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -7347,12 +7348,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -7361,21 +7362,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7419,7 +7420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -7459,14 +7460,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7475,21 +7476,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7533,7 +7534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -7573,8 +7574,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="5" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
+    <workbookView activeTab="14" firstSheet="13" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -69,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>
@@ -573,9 +578,6 @@
   </si>
   <si>
     <t>07/02/2017</t>
-  </si>
-  <si>
-    <t>1153.84615</t>
   </si>
   <si>
     <t>1038.47</t>
@@ -664,12 +666,15 @@
   </si>
   <si>
     <t>HMRCS2_Payroll</t>
+  </si>
+  <si>
+    <t>1153.84615</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -838,7 +843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -871,9 +876,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,6 +928,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1088,15 +1127,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -1138,7 +1177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1152,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1166,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1180,7 +1219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1194,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1208,7 +1247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1222,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1236,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1250,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1264,7 +1303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1278,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1292,7 +1331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1306,7 +1345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -1320,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1334,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1348,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1362,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1390,7 +1429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1404,7 +1443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -1418,7 +1457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1432,7 +1471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1446,9 +1485,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>80</v>
@@ -1460,9 +1499,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>80</v>
@@ -1474,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1488,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -1502,7 +1541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1516,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1530,9 +1569,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>80</v>
@@ -1544,7 +1583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1558,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -1572,7 +1611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1586,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1600,7 +1639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1614,7 +1653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -1628,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1642,7 +1681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1656,9 +1695,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -1670,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1684,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -1698,7 +1737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1712,7 +1751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1726,7 +1765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1740,7 +1779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -1754,7 +1793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1768,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1782,7 +1821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1796,7 +1835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -1810,7 +1849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1824,9 +1863,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>80</v>
@@ -1838,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -1852,7 +1891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1866,7 +1905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -1880,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1907,21 +1946,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1977,15 +2016,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -2000,7 +2039,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>64</v>
@@ -2041,17 +2080,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2116,24 +2155,24 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2177,15 +2216,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2200,7 +2239,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>87</v>
@@ -2231,18 +2270,18 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2286,15 +2325,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2309,7 +2348,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>65</v>
@@ -2340,22 +2379,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2411,15 +2450,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -2434,7 +2473,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>66</v>
@@ -2470,27 +2509,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.5703125" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="9.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2516,16 +2555,16 @@
         <v>164</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
@@ -2557,22 +2596,22 @@
         <v>167</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="I2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>4</v>
@@ -2580,7 +2619,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2592,17 +2631,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2663,27 +2702,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2727,15 +2766,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2750,7 +2789,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>67</v>
@@ -2781,20 +2820,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2838,15 +2877,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2861,7 +2900,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>101</v>
@@ -2892,22 +2931,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2963,15 +3002,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -2986,7 +3025,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>139</v>
@@ -3026,15 +3065,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3093,18 +3132,18 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3169,23 +3208,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3229,15 +3268,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3252,7 +3291,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>140</v>
@@ -3283,18 +3322,18 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3338,15 +3377,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3361,7 +3400,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>68</v>
@@ -3392,22 +3431,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3463,15 +3502,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -3486,7 +3525,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>112</v>
@@ -3526,15 +3565,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3545,7 +3584,7 @@
         <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3568,7 +3607,7 @@
         <v>158</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>4</v>
@@ -3588,17 +3627,17 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3612,7 +3651,7 @@
         <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3632,13 +3671,13 @@
         <v>157</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>4</v>
@@ -3657,17 +3696,17 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3732,25 +3771,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3794,15 +3833,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="65.400000000000006" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3817,7 +3856,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>141</v>
@@ -3848,17 +3887,17 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3902,15 +3941,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3925,10 +3964,10 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3956,19 +3995,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4024,15 +4063,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -4047,7 +4086,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>159</v>
@@ -4087,15 +4126,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4161,17 +4200,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4236,15 +4275,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4255,7 +4294,7 @@
         <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4297,25 +4336,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4359,15 +4398,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4382,7 +4421,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>69</v>
@@ -4413,17 +4452,17 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4467,15 +4506,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4490,7 +4529,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>103</v>
@@ -4521,20 +4560,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4590,15 +4629,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -4613,7 +4652,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>70</v>
@@ -4653,17 +4692,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="51.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4728,23 +4767,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4788,15 +4827,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4811,7 +4850,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>70</v>
@@ -4842,17 +4881,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4896,15 +4935,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4919,7 +4958,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>142</v>
@@ -4950,20 +4989,20 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5019,15 +5058,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -5042,7 +5081,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>104</v>
@@ -5082,18 +5121,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5158,23 +5197,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5218,15 +5257,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5241,7 +5280,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>61</v>
@@ -5273,15 +5312,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5292,7 +5331,7 @@
         <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5312,10 +5351,10 @@
         <v>157</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>4</v>
@@ -5334,23 +5373,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5394,15 +5433,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5417,7 +5456,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>143</v>
@@ -5448,18 +5487,18 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5503,15 +5542,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5526,7 +5565,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>105</v>
@@ -5557,20 +5596,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5626,15 +5665,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -5649,10 +5688,10 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -5689,17 +5728,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5764,23 +5803,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5824,15 +5863,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5847,7 +5886,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>113</v>
@@ -5878,17 +5917,17 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5932,15 +5971,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5955,7 +5994,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>107</v>
@@ -5986,20 +6025,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6055,15 +6094,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -6078,10 +6117,10 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -6118,17 +6157,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6193,23 +6232,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6253,15 +6292,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6276,7 +6315,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>144</v>
@@ -6307,23 +6346,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6367,15 +6406,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6390,7 +6429,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>62</v>
@@ -6421,19 +6460,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6477,15 +6516,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6500,10 +6539,10 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -6531,19 +6570,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6599,15 +6638,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -6622,10 +6661,10 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -6662,13 +6701,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6712,18 +6751,18 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6788,23 +6827,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6848,15 +6887,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6871,7 +6910,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>114</v>
@@ -6903,23 +6942,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6963,15 +7002,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6986,7 +7025,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>115</v>
@@ -7018,19 +7057,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -7086,15 +7125,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -7109,7 +7148,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>116</v>
@@ -7151,22 +7190,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -7222,15 +7261,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -7245,7 +7284,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>83</v>
@@ -7286,16 +7325,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7324,7 +7363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -7356,27 +7395,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7420,15 +7459,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -7443,7 +7482,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>63</v>
@@ -7474,23 +7513,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7534,15 +7573,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -7557,7 +7596,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>86</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -1,80 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="14" firstSheet="13" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId14" sheetId="20"/>
-    <sheet name="CreateLeaveRequest" r:id="rId15" sheetId="63"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
-    <sheet name="UpdateLeaveRecord" r:id="rId24" sheetId="64"/>
-    <sheet name="CreateShPPLeaveRequest" r:id="rId25" sheetId="65"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId26" sheetId="27"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId27" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId28" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId29" sheetId="29"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId30" sheetId="30"/>
-    <sheet name="UpdateLeaveRecord7" r:id="rId31" sheetId="66"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId32" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId33" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId34" sheetId="32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId35" sheetId="33"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId36" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId37" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId38" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId39" sheetId="36"/>
-    <sheet name="UpdateLeaveRecord9" r:id="rId40" sheetId="67"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId41" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId42" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId43" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId44" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId45" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId46" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId47" sheetId="41"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId48" sheetId="42"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId49" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId50" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId51" sheetId="44"/>
-    <sheet name="ResetEmployeeData12" r:id="rId52" sheetId="62"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId53" sheetId="45"/>
-    <sheet name="ProcessPayrollForMarch" r:id="rId54" sheetId="46"/>
-    <sheet name="ProcessFinalPayrollForMarch" r:id="rId55" sheetId="60"/>
-    <sheet name="TestMarchReports" r:id="rId56" sheetId="47"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId11"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId12"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId13"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId14"/>
+    <sheet name="CreateLeaveRequest" sheetId="63" r:id="rId15"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
+    <sheet name="UpdateLeaveRecord" sheetId="64" r:id="rId24"/>
+    <sheet name="CreateShPPLeaveRequest" sheetId="65" r:id="rId25"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId26"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId27"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId28"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId29"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId30"/>
+    <sheet name="UpdateLeaveRecord7" sheetId="66" r:id="rId31"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId32"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId33"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId34"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId35"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId36"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId37"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId39"/>
+    <sheet name="UpdateLeaveRecord9" sheetId="67" r:id="rId40"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId41"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId42"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId43"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId44"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId45"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId46"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId47"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId48"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId49"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId50"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId51"/>
+    <sheet name="ResetEmployeeData12" sheetId="62" r:id="rId52"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId53"/>
+    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId54"/>
+    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId55"/>
+    <sheet name="TestMarchReports" sheetId="47" r:id="rId56"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>
@@ -675,7 +675,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,66 +728,66 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -805,10 +804,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -843,7 +842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -895,7 +894,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1000,7 +999,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1009,13 +1008,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1025,7 +1024,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1034,7 +1033,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1043,7 +1042,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1053,12 +1052,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1089,7 +1088,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1108,7 +1107,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1120,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -1129,10 +1128,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1934,12 +1933,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1948,22 +1947,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2065,15 +2064,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2082,12 +2081,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2119,7 +2118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -2143,12 +2142,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2157,19 +2156,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2216,7 +2215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2256,14 +2255,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2272,13 +2271,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2325,7 +2324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2365,14 +2364,566 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2381,23 +2932,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2450,7 +3001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2464,7 +3015,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -2476,7 +3027,7 @@
         <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -2485,13 +3036,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>4</v>
@@ -2499,132 +3050,1149 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>4</v>
+      <c r="B2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="J2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2633,12 +4201,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2670,7 +4238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -2694,126 +4262,73 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2822,15 +4337,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2877,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2891,7 +4411,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -2899,11 +4419,11 @@
       <c r="G2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="11" t="s">
         <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -2917,14 +4437,122 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2933,23 +4561,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3002,7 +4628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3016,7 +4642,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -3028,7 +4654,7 @@
         <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -3037,13 +4663,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>4</v>
@@ -3051,96 +4677,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="J2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="2" width="51.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3172,7 +4730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -3196,12 +4754,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3210,18 +4768,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3268,7 +4826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3282,7 +4840,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -3290,11 +4848,11 @@
       <c r="G2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="3" t="s">
         <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3308,14 +4866,330 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3324,13 +5198,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3377,7 +5256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3391,7 +5270,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -3400,10 +5279,10 @@
         <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3417,14 +5296,299 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3433,23 +5597,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3502,7 +5664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3516,7 +5678,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -3528,7 +5690,7 @@
         <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -3537,13 +5699,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>4</v>
@@ -3551,159 +5713,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="2" s="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3735,7 +5766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -3759,12 +5790,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3773,20 +5804,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3833,7 +5862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3847,7 +5876,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -3859,7 +5888,7 @@
         <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3873,14 +5902,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3889,12 +5918,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3941,7 +5970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3955,7 +5984,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -3967,7 +5996,7 @@
         <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3981,14 +6010,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3997,20 +6026,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4063,7 +6093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4077,7 +6107,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -4089,7 +6119,7 @@
         <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -4098,13 +6128,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>4</v>
@@ -4112,26 +6142,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4163,7 +6195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -4187,149 +6219,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="45" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4338,20 +6233,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4398,7 +6291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4412,7 +6305,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -4424,7 +6317,7 @@
         <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -4438,14 +6331,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4454,12 +6347,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4506,7 +6405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4520,7 +6419,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -4532,7 +6431,7 @@
         <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -4546,14 +6445,124 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4562,21 +6571,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4629,7 +6637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4643,7 +6651,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -4655,7 +6663,7 @@
         <v>194</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -4664,13 +6672,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>4</v>
@@ -4678,28 +6686,79 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4731,7 +6790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -4755,12 +6814,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4769,18 +6828,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4827,7 +6886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4840,8 +6899,8 @@
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>77</v>
+      <c r="E2" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -4849,11 +6908,11 @@
       <c r="G2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="11" t="s">
         <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -4867,330 +6926,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5199,18 +6943,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5257,7 +7001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -5270,8 +7014,8 @@
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>60</v>
+      <c r="E2" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -5279,11 +7023,11 @@
       <c r="G2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>193</v>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -5297,76 +7041,471 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="35" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5375,18 +7514,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5433,7 +7572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -5447,7 +7586,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>146</v>
@@ -5455,11 +7594,11 @@
       <c r="G2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="3" t="s">
         <v>194</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -5473,2148 +7612,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -1,80 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="11" activeTab="13"/>
+    <workbookView activeTab="13" firstSheet="11" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId11"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId12"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId13"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId14"/>
-    <sheet name="CreateLeaveRequest" sheetId="63" r:id="rId15"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
-    <sheet name="UpdateLeaveRecord" sheetId="64" r:id="rId24"/>
-    <sheet name="CreateShPPLeaveRequest" sheetId="65" r:id="rId25"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId26"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId27"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId28"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId29"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId30"/>
-    <sheet name="UpdateLeaveRecord7" sheetId="66" r:id="rId31"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId32"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId33"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId34"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId35"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId36"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId37"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId39"/>
-    <sheet name="UpdateLeaveRecord9" sheetId="67" r:id="rId40"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId41"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId42"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId43"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId44"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId45"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId46"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId47"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId48"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId49"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId50"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId51"/>
-    <sheet name="ResetEmployeeData12" sheetId="62" r:id="rId52"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId53"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId54"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId55"/>
-    <sheet name="TestMarchReports" sheetId="47" r:id="rId56"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId14" sheetId="20"/>
+    <sheet name="CreateLeaveRequest" r:id="rId15" sheetId="63"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
+    <sheet name="UpdateLeaveRecord" r:id="rId24" sheetId="64"/>
+    <sheet name="CreateShPPLeaveRequest" r:id="rId25" sheetId="65"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId26" sheetId="27"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId27" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId28" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId29" sheetId="29"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId30" sheetId="30"/>
+    <sheet name="UpdateLeaveRecord7" r:id="rId31" sheetId="66"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId32" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId33" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId34" sheetId="32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId35" sheetId="33"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId36" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId37" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId38" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId39" sheetId="36"/>
+    <sheet name="UpdateLeaveRecord9" r:id="rId40" sheetId="67"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId41" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId42" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId43" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId44" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId45" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId46" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId47" sheetId="41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId48" sheetId="42"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId49" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId50" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId51" sheetId="44"/>
+    <sheet name="ResetEmployeeData12" r:id="rId52" sheetId="62"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId53" sheetId="45"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId54" sheetId="46"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId55" sheetId="60"/>
+    <sheet name="TestMarchReports" r:id="rId56" sheetId="47"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>
@@ -675,6 +675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,66 +729,66 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -804,10 +805,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -842,7 +843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,7 +895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -999,7 +1000,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1008,13 +1009,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1024,7 +1025,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1033,7 +1034,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1042,7 +1043,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1052,12 +1053,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1088,7 +1089,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1107,7 +1108,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1119,7 +1120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -1128,10 +1129,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1933,12 +1934,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1947,22 +1948,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2064,15 +2065,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2081,12 +2082,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2118,7 +2119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -2142,12 +2143,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2156,19 +2157,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2215,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2255,14 +2256,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2271,13 +2272,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2324,7 +2325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2364,14 +2365,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -2380,23 +2381,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2449,7 +2450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2498,14 +2499,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2514,18 +2515,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2575,7 +2576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -2617,13 +2618,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2632,12 +2633,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2669,7 +2670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -2693,12 +2694,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2707,18 +2708,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2765,7 +2766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2805,14 +2806,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2821,15 +2822,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2876,7 +2877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -2916,14 +2917,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2932,23 +2933,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3050,14 +3051,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3066,10 +3067,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3095,7 +3096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -3118,13 +3119,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3133,13 +3134,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3171,7 +3172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -3195,12 +3196,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3209,18 +3210,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3267,7 +3268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3307,14 +3308,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3323,13 +3324,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3376,7 +3377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3416,14 +3417,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3432,23 +3433,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3550,14 +3551,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3566,10 +3567,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3595,7 +3596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -3613,13 +3614,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3628,12 +3629,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3662,7 +3663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -3683,12 +3684,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3697,12 +3698,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3734,7 +3735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -3758,12 +3759,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3772,20 +3773,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3832,7 +3833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3872,14 +3873,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3888,12 +3889,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3940,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -3980,14 +3981,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3996,20 +3997,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4111,14 +4112,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4127,10 +4128,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4162,7 +4163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -4186,13 +4187,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4201,12 +4202,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4238,7 +4239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -4262,12 +4263,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4276,10 +4277,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4305,7 +4306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -4323,12 +4324,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4337,20 +4338,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4397,7 +4398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4437,14 +4438,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4453,12 +4454,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4505,7 +4506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4545,14 +4546,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4561,21 +4562,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4677,14 +4678,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4693,12 +4694,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4730,7 +4731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -4754,12 +4755,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4768,18 +4769,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4826,7 +4827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4866,14 +4867,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4882,12 +4883,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4934,7 +4935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -4974,14 +4975,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4990,21 +4991,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -5106,14 +5107,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5122,13 +5123,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5160,7 +5161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -5184,12 +5185,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5198,18 +5199,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5256,7 +5257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -5296,15 +5297,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5313,10 +5314,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5342,7 +5343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -5360,12 +5361,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,18 +5375,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5432,7 +5433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -5472,14 +5473,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5488,13 +5489,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5541,7 +5542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -5581,14 +5582,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5597,21 +5598,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5664,7 +5665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -5713,14 +5714,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5729,12 +5730,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5766,7 +5767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -5790,12 +5791,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5804,18 +5805,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5862,7 +5863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -5902,14 +5903,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5918,12 +5919,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5970,7 +5971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -6010,14 +6011,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6026,21 +6027,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -6142,14 +6143,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6158,12 +6159,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6195,7 +6196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -6219,12 +6220,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6233,18 +6234,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6291,7 +6292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -6331,14 +6332,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6347,18 +6348,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6405,7 +6406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -6445,14 +6446,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6461,14 +6462,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6515,7 +6516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -6555,14 +6556,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6571,20 +6572,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6637,7 +6638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -6686,14 +6687,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6702,8 +6703,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6723,7 +6724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
@@ -6737,13 +6738,13 @@
       <c r="E2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6752,13 +6753,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6790,7 +6791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -6814,12 +6815,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6828,18 +6829,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6886,7 +6887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -6926,15 +6927,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6943,18 +6944,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7001,7 +7002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -7041,15 +7042,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7058,20 +7059,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7124,7 +7125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -7173,16 +7174,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -7191,23 +7192,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -7260,7 +7261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -7309,15 +7310,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7326,11 +7327,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7362,7 +7363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -7386,12 +7387,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7400,18 +7401,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7458,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -7498,14 +7499,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7514,18 +7515,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7572,7 +7573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -7612,8 +7613,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>
@@ -509,9 +509,6 @@
   </si>
   <si>
     <t>46</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 102</t>
   </si>
   <si>
     <t>Payroll Recognition ScenarioTwo201718.xlsx</t>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>1153.84615</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 2</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>80</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>80</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>80</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>80</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>80</v>
@@ -1943,7 +1943,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,13 +2018,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="62.45" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -2033,13 +2033,13 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>64</v>
@@ -2077,7 +2077,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,17 +2120,17 @@
       </c>
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>145</v>
+      <c r="A2" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -2152,7 +2152,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,13 +2218,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2233,13 +2233,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>87</v>
@@ -2267,7 +2267,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,13 +2327,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2342,13 +2342,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>65</v>
@@ -2375,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,13 +2452,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -2467,13 +2467,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>66</v>
@@ -2510,7 +2510,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,37 +2534,37 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
@@ -2576,42 +2576,42 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="D2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>168</v>
-      </c>
       <c r="I2" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>4</v>
@@ -2628,7 +2628,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,16 +2672,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -2702,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,13 +2768,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2783,13 +2783,13 @@
         <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>67</v>
@@ -2817,7 +2817,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,13 +2879,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2894,13 +2894,13 @@
         <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>101</v>
@@ -2928,7 +2928,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,13 +3004,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -3019,13 +3019,13 @@
         <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>139</v>
@@ -3062,7 +3062,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,10 +3098,10 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>14</v>
@@ -3115,7 +3115,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="J2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3129,7 +3129,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3174,16 +3174,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -3205,7 +3205,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,13 +3270,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3285,13 +3285,13 @@
         <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>140</v>
@@ -3319,7 +3319,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,13 +3379,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3394,13 +3394,13 @@
         <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>68</v>
@@ -3428,7 +3428,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,13 +3504,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -3519,13 +3519,13 @@
         <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>112</v>
@@ -3562,7 +3562,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,13 +3578,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3596,18 +3596,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="D2" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>4</v>
@@ -3624,7 +3624,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,16 +3642,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3663,21 +3663,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>4</v>
@@ -3693,7 +3693,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,16 +3737,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -3768,7 +3768,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,13 +3835,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="65.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3850,13 +3850,13 @@
         <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>141</v>
@@ -3884,7 +3884,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,13 +3943,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3958,16 +3958,16 @@
         <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -3992,7 +3992,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,13 +4065,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -4080,16 +4080,16 @@
         <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -4123,7 +4123,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,16 +4165,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -4197,7 +4197,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,16 +4241,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -4272,7 +4272,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4288,13 +4288,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4306,18 +4306,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="D2" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>4</v>
@@ -4333,7 +4333,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4400,13 +4400,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4415,13 +4415,13 @@
         <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>69</v>
@@ -4449,7 +4449,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4508,13 +4508,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4523,13 +4523,13 @@
         <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>103</v>
@@ -4557,7 +4557,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,13 +4631,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -4646,13 +4646,13 @@
         <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>70</v>
@@ -4689,7 +4689,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4733,16 +4733,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -4764,7 +4764,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4829,13 +4829,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4844,13 +4844,13 @@
         <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>70</v>
@@ -4878,7 +4878,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4937,13 +4937,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -4952,13 +4952,13 @@
         <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>142</v>
@@ -4986,7 +4986,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5060,13 +5060,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -5075,13 +5075,13 @@
         <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>104</v>
@@ -5118,7 +5118,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5163,16 +5163,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -5194,7 +5194,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5259,13 +5259,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5274,13 +5274,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>61</v>
@@ -5309,7 +5309,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5325,13 +5325,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5343,18 +5343,18 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>4</v>
@@ -5370,7 +5370,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5435,13 +5435,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5450,13 +5450,13 @@
         <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>143</v>
@@ -5484,7 +5484,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5544,13 +5544,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5559,13 +5559,13 @@
         <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>105</v>
@@ -5593,7 +5593,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5667,13 +5667,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -5682,16 +5682,16 @@
         <v>78</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -5725,7 +5725,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5769,16 +5769,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -5800,7 +5800,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,13 +5865,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5880,13 +5880,13 @@
         <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>113</v>
@@ -5914,7 +5914,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5973,13 +5973,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -5988,13 +5988,13 @@
         <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>107</v>
@@ -6022,7 +6022,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6096,13 +6096,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -6111,16 +6111,16 @@
         <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -6154,7 +6154,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6198,16 +6198,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -6229,7 +6229,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6294,13 +6294,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6309,13 +6309,13 @@
         <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>144</v>
@@ -6343,7 +6343,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6408,13 +6408,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6423,13 +6423,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>62</v>
@@ -6457,7 +6457,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6518,13 +6518,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6533,16 +6533,16 @@
         <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>24</v>
@@ -6567,7 +6567,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6640,13 +6640,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -6655,16 +6655,16 @@
         <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>24</v>
@@ -6698,7 +6698,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6726,10 +6726,10 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>4</v>
@@ -6748,7 +6748,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6793,16 +6793,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -6824,7 +6824,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6889,13 +6889,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -6904,13 +6904,13 @@
         <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>114</v>
@@ -6939,7 +6939,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7004,13 +7004,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -7019,13 +7019,13 @@
         <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>115</v>
@@ -7054,7 +7054,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7127,13 +7127,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -7142,13 +7142,13 @@
         <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>116</v>
@@ -7186,8 +7186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,13 +7263,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="62.45" r="2" s="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
@@ -7278,13 +7278,13 @@
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>83</v>
@@ -7365,16 +7365,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>60000</v>
@@ -7396,7 +7396,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7461,13 +7461,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="62.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -7476,13 +7476,13 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>63</v>
@@ -7510,7 +7510,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7575,13 +7575,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -7590,13 +7590,13 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>86</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="198">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioTwo201718.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="53" activeTab="55"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -4121,8 +4121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7052,7 +7052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
